--- a/Code/Results/Cases/Case_0_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.141575597467391</v>
+        <v>4.928768402600219</v>
       </c>
       <c r="D2">
-        <v>9.910877980556263</v>
+        <v>5.649667461805564</v>
       </c>
       <c r="E2">
-        <v>34.15599220690351</v>
+        <v>16.72339935239674</v>
       </c>
       <c r="F2">
-        <v>68.71879243910131</v>
+        <v>38.60592147596483</v>
       </c>
       <c r="G2">
-        <v>112.8420457447869</v>
+        <v>59.47479272158546</v>
       </c>
       <c r="H2">
-        <v>28.08637236034758</v>
+        <v>18.02939739762821</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682373</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.459973231725858</v>
+        <v>4.750715973229624</v>
       </c>
       <c r="D3">
-        <v>9.051804764914911</v>
+        <v>5.449517218026374</v>
       </c>
       <c r="E3">
-        <v>31.06522761790506</v>
+        <v>15.7413072787012</v>
       </c>
       <c r="F3">
-        <v>62.82171160731639</v>
+        <v>36.83191499190448</v>
       </c>
       <c r="G3">
-        <v>103.1261028604408</v>
+        <v>56.1154442933387</v>
       </c>
       <c r="H3">
-        <v>25.67121253942918</v>
+        <v>17.50004222806566</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.2256181799734</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.036664920695856</v>
+        <v>4.640201828005387</v>
       </c>
       <c r="D4">
-        <v>8.524489073360082</v>
+        <v>5.325647932214436</v>
       </c>
       <c r="E4">
-        <v>29.1807400349996</v>
+        <v>15.11449299435108</v>
       </c>
       <c r="F4">
-        <v>59.17957320101015</v>
+        <v>35.71611540401505</v>
       </c>
       <c r="G4">
-        <v>97.12742653382496</v>
+        <v>53.97312806182256</v>
       </c>
       <c r="H4">
-        <v>24.18086739876608</v>
+        <v>17.17499675511618</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.862182478035502</v>
+        <v>4.594943887929177</v>
       </c>
       <c r="D5">
-        <v>8.308380732209528</v>
+        <v>5.275008664708738</v>
       </c>
       <c r="E5">
-        <v>28.41086462517766</v>
+        <v>14.85333479962915</v>
       </c>
       <c r="F5">
-        <v>57.6828104147609</v>
+        <v>35.25546152999943</v>
       </c>
       <c r="G5">
-        <v>94.66254863757734</v>
+        <v>53.0810818156808</v>
       </c>
       <c r="H5">
-        <v>23.56868630308094</v>
+        <v>17.04274510246174</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.833071414607464</v>
+        <v>4.587417753661792</v>
       </c>
       <c r="D6">
-        <v>8.27239200841394</v>
+        <v>5.266592867242475</v>
       </c>
       <c r="E6">
-        <v>28.28278568374584</v>
+        <v>14.80963250433646</v>
       </c>
       <c r="F6">
-        <v>57.43334338846642</v>
+        <v>35.17863344159634</v>
       </c>
       <c r="G6">
-        <v>94.25173917133611</v>
+        <v>52.93184151972974</v>
       </c>
       <c r="H6">
-        <v>23.4666698097419</v>
+        <v>17.02080368120333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962191</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.03432068060227</v>
+        <v>4.639592259107009</v>
       </c>
       <c r="D7">
-        <v>8.521580918960984</v>
+        <v>5.324965532006997</v>
       </c>
       <c r="E7">
-        <v>29.17037087043797</v>
+        <v>15.11099372557849</v>
       </c>
       <c r="F7">
-        <v>59.15944620528579</v>
+        <v>35.70992596150577</v>
       </c>
       <c r="G7">
-        <v>97.09428021411982</v>
+        <v>53.96117322644605</v>
       </c>
       <c r="H7">
-        <v>24.17263427552606</v>
+        <v>17.17321203841508</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.907013684469439</v>
+        <v>4.86766677092459</v>
       </c>
       <c r="D8">
-        <v>9.613743622323875</v>
+        <v>5.580906729155421</v>
       </c>
       <c r="E8">
-        <v>33.08380005760787</v>
+        <v>16.38985453637524</v>
       </c>
       <c r="F8">
-        <v>66.68480359112375</v>
+        <v>38.00015848500841</v>
       </c>
       <c r="G8">
-        <v>109.4903188185697</v>
+        <v>58.33356360182439</v>
       </c>
       <c r="H8">
-        <v>27.25305164798053</v>
+        <v>17.84700391936332</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.634191786705347</v>
+        <v>5.302440707935506</v>
       </c>
       <c r="D9">
-        <v>11.847192153969</v>
+        <v>6.071699395578773</v>
       </c>
       <c r="E9">
-        <v>41.24813697887898</v>
+        <v>18.86970573823708</v>
       </c>
       <c r="F9">
-        <v>81.787517026914</v>
+        <v>42.25359736752887</v>
       </c>
       <c r="G9">
-        <v>134.3975337051291</v>
+        <v>66.2409342593611</v>
       </c>
       <c r="H9">
-        <v>33.44866727105462</v>
+        <v>19.1593731761759</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.06368648094317</v>
+        <v>5.610646901156882</v>
       </c>
       <c r="D10">
-        <v>13.80737344495032</v>
+        <v>6.421499068240125</v>
       </c>
       <c r="E10">
-        <v>48.70686871046214</v>
+        <v>20.60686657495012</v>
       </c>
       <c r="F10">
-        <v>94.57059161553251</v>
+        <v>45.20348272566338</v>
       </c>
       <c r="G10">
-        <v>155.5337916981873</v>
+        <v>71.6079215133053</v>
       </c>
       <c r="H10">
-        <v>38.7103036524067</v>
+        <v>20.10724551707756</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.86021178493172</v>
+        <v>5.747787228625371</v>
       </c>
       <c r="D11">
-        <v>14.97286515847429</v>
+        <v>6.577581296934976</v>
       </c>
       <c r="E11">
-        <v>53.36614059909315</v>
+        <v>21.35638126211074</v>
       </c>
       <c r="F11">
-        <v>101.8723076753016</v>
+        <v>46.50257961559642</v>
       </c>
       <c r="G11">
-        <v>167.6438291941762</v>
+        <v>73.94827400440393</v>
       </c>
       <c r="H11">
-        <v>41.72599627870169</v>
+        <v>20.5328891772316</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.22298983354428</v>
+        <v>5.799233576771741</v>
       </c>
       <c r="D12">
-        <v>15.53025525003402</v>
+        <v>6.636197990370052</v>
       </c>
       <c r="E12">
-        <v>55.6848038385537</v>
+        <v>21.6344058659079</v>
       </c>
       <c r="F12">
-        <v>105.2632426331924</v>
+        <v>46.98803801519082</v>
       </c>
       <c r="G12">
-        <v>173.2808702994792</v>
+        <v>74.81966114465946</v>
       </c>
       <c r="H12">
-        <v>43.12992440988004</v>
+        <v>20.69312276344071</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977162</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.14014101839246</v>
+        <v>5.788175943633648</v>
       </c>
       <c r="D13">
-        <v>15.40115203360053</v>
+        <v>6.623596289287736</v>
       </c>
       <c r="E13">
-        <v>55.14139052495975</v>
+        <v>21.57478535990529</v>
       </c>
       <c r="F13">
-        <v>104.4843494522386</v>
+        <v>46.88377867963634</v>
       </c>
       <c r="G13">
-        <v>171.9851776299192</v>
+        <v>74.63265710415709</v>
       </c>
       <c r="H13">
-        <v>42.80721968056728</v>
+        <v>20.65865801399339</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617573</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.88822031349873</v>
+        <v>5.752029722615101</v>
       </c>
       <c r="D14">
-        <v>15.01520646782479</v>
+        <v>6.582413779872399</v>
       </c>
       <c r="E14">
-        <v>53.53989312354939</v>
+        <v>21.37937043541522</v>
       </c>
       <c r="F14">
-        <v>102.1323928988058</v>
+        <v>46.54265012011396</v>
       </c>
       <c r="G14">
-        <v>168.0758570462083</v>
+        <v>74.02026275025028</v>
       </c>
       <c r="H14">
-        <v>41.83359147891093</v>
+        <v>20.54609150817867</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.4385114418848</v>
+        <v>21.67368539489661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.74460126557564</v>
+        <v>5.729824625547321</v>
       </c>
       <c r="D15">
-        <v>14.79919972572738</v>
+        <v>6.557123326602168</v>
       </c>
       <c r="E15">
-        <v>52.65719510355063</v>
+        <v>21.25891946079913</v>
       </c>
       <c r="F15">
-        <v>100.8014822572426</v>
+        <v>46.33284632113661</v>
       </c>
       <c r="G15">
-        <v>165.8656186852051</v>
+        <v>73.64321121104939</v>
       </c>
       <c r="H15">
-        <v>41.28314461776942</v>
+        <v>20.47701354564053</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549475</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.01649826178456</v>
+        <v>5.601618809704048</v>
       </c>
       <c r="D16">
-        <v>13.74032875939117</v>
+        <v>6.411233009933167</v>
       </c>
       <c r="E16">
-        <v>48.44504122665639</v>
+        <v>20.55706926943449</v>
       </c>
       <c r="F16">
-        <v>94.14290556848397</v>
+        <v>45.1176930226386</v>
       </c>
       <c r="G16">
-        <v>154.8254565731462</v>
+        <v>71.45291064196766</v>
       </c>
       <c r="H16">
-        <v>38.53393018134999</v>
+        <v>20.07930384196959</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.42464283346096</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.61926588695779</v>
+        <v>5.522149913736929</v>
       </c>
       <c r="D17">
-        <v>13.18316130936944</v>
+        <v>6.32091643456298</v>
       </c>
       <c r="E17">
-        <v>46.29021659855117</v>
+        <v>20.11611526749974</v>
       </c>
       <c r="F17">
-        <v>90.56019221265034</v>
+        <v>44.36101940554361</v>
       </c>
       <c r="G17">
-        <v>148.8953569293809</v>
+        <v>70.08308494553559</v>
       </c>
       <c r="H17">
-        <v>37.05745106187189</v>
+        <v>19.83378887045343</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.40154027392708</v>
+        <v>5.476155396883579</v>
       </c>
       <c r="D18">
-        <v>12.88273967913408</v>
+        <v>6.268684870150366</v>
       </c>
       <c r="E18">
-        <v>45.14243971552065</v>
+        <v>19.85865322088638</v>
       </c>
       <c r="F18">
-        <v>88.60858382668221</v>
+        <v>43.92178569123351</v>
       </c>
       <c r="G18">
-        <v>145.6675402290931</v>
+        <v>69.28569292124584</v>
       </c>
       <c r="H18">
-        <v>36.25386865951556</v>
+        <v>19.69206097939129</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.5640428768043</v>
+        <v>20.79000725568142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.32925869673647</v>
+        <v>5.460534774780691</v>
       </c>
       <c r="D19">
-        <v>12.78370868767116</v>
+        <v>6.250953056740764</v>
       </c>
       <c r="E19">
-        <v>44.76603507751948</v>
+        <v>19.77082028624366</v>
       </c>
       <c r="F19">
-        <v>87.96240115283446</v>
+        <v>43.77238993259511</v>
       </c>
       <c r="G19">
-        <v>144.5991538814095</v>
+        <v>69.01408814294462</v>
       </c>
       <c r="H19">
-        <v>35.98790176317488</v>
+        <v>19.64399087572986</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.66033037733036</v>
+        <v>5.530639469913219</v>
       </c>
       <c r="D20">
-        <v>13.24019669105195</v>
+        <v>6.330560553955119</v>
       </c>
       <c r="E20">
-        <v>46.50917771892868</v>
+        <v>20.16345227902725</v>
       </c>
       <c r="F20">
-        <v>90.92919059144212</v>
+        <v>44.44198667598492</v>
       </c>
       <c r="G20">
-        <v>149.5058406215342</v>
+        <v>70.2298914315605</v>
       </c>
       <c r="H20">
-        <v>37.20944097699834</v>
+        <v>19.85997871186794</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.95971164093713</v>
+        <v>5.762660256602917</v>
       </c>
       <c r="D21">
-        <v>15.12377745005256</v>
+        <v>6.59452370368845</v>
       </c>
       <c r="E21">
-        <v>53.98711839067079</v>
+        <v>21.43692550303055</v>
       </c>
       <c r="F21">
-        <v>102.7974794459003</v>
+        <v>46.64302604969158</v>
       </c>
       <c r="G21">
-        <v>169.1808740665317</v>
+        <v>74.20054304427929</v>
       </c>
       <c r="H21">
-        <v>42.10879507496642</v>
+        <v>20.57918188555943</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633597</v>
+        <v>21.70751365554063</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.95971164093713</v>
+        <v>5.911451246215831</v>
       </c>
       <c r="D22">
-        <v>15.12377745005256</v>
+        <v>6.7641739590201</v>
       </c>
       <c r="E22">
-        <v>53.98711839067079</v>
+        <v>22.23543168887867</v>
       </c>
       <c r="F22">
-        <v>102.7974794459003</v>
+        <v>48.0436424859118</v>
       </c>
       <c r="G22">
-        <v>169.1808740665317</v>
+        <v>76.7089231171953</v>
       </c>
       <c r="H22">
-        <v>42.10879507496642</v>
+        <v>21.04363524480693</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>31.50948335633597</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.95971164093713</v>
+        <v>5.832312692421359</v>
       </c>
       <c r="D23">
-        <v>15.12377745005256</v>
+        <v>6.673905628839768</v>
       </c>
       <c r="E23">
-        <v>53.98711839067079</v>
+        <v>21.81232618168057</v>
       </c>
       <c r="F23">
-        <v>102.7974794459003</v>
+        <v>47.29966667446977</v>
       </c>
       <c r="G23">
-        <v>169.1808740665317</v>
+        <v>75.37816750397856</v>
       </c>
       <c r="H23">
-        <v>42.10879507496642</v>
+        <v>20.79630489046493</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.50948335633597</v>
+        <v>21.92877110911182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.95971164093713</v>
+        <v>5.526802293663756</v>
       </c>
       <c r="D24">
-        <v>15.12377745005256</v>
+        <v>6.326201401030153</v>
       </c>
       <c r="E24">
-        <v>53.98711839067079</v>
+        <v>20.14206352909104</v>
       </c>
       <c r="F24">
-        <v>102.7974794459003</v>
+        <v>44.40539446720131</v>
       </c>
       <c r="G24">
-        <v>169.1808740665317</v>
+        <v>70.16355090943051</v>
       </c>
       <c r="H24">
-        <v>42.10879507496642</v>
+        <v>19.84814007350923</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>31.50948335633597</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.95971164093713</v>
+        <v>5.186557253758371</v>
       </c>
       <c r="D25">
-        <v>15.12377745005256</v>
+        <v>5.940557437116674</v>
       </c>
       <c r="E25">
-        <v>53.98711839067079</v>
+        <v>18.19349308199895</v>
       </c>
       <c r="F25">
-        <v>102.7974794459003</v>
+        <v>41.13180146318768</v>
       </c>
       <c r="G25">
-        <v>169.1808740665317</v>
+        <v>64.17740294065275</v>
       </c>
       <c r="H25">
-        <v>42.10879507496642</v>
+        <v>18.80647406668165</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>31.50948335633597</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.928768402600219</v>
+        <v>8.141575597467517</v>
       </c>
       <c r="D2">
-        <v>5.649667461805564</v>
+        <v>9.910877980556073</v>
       </c>
       <c r="E2">
-        <v>16.72339935239674</v>
+        <v>34.15599220690329</v>
       </c>
       <c r="F2">
-        <v>38.60592147596483</v>
+        <v>68.71879243910084</v>
       </c>
       <c r="G2">
-        <v>59.47479272158546</v>
+        <v>112.842045744786</v>
       </c>
       <c r="H2">
-        <v>18.02939739762821</v>
+        <v>28.08637236034738</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750715973229624</v>
+        <v>7.459973231725828</v>
       </c>
       <c r="D3">
-        <v>5.449517218026374</v>
+        <v>9.051804764914891</v>
       </c>
       <c r="E3">
-        <v>15.7413072787012</v>
+        <v>31.06522761790501</v>
       </c>
       <c r="F3">
-        <v>36.83191499190448</v>
+        <v>62.82171160731647</v>
       </c>
       <c r="G3">
-        <v>56.1154442933387</v>
+        <v>103.1261028604409</v>
       </c>
       <c r="H3">
-        <v>17.50004222806566</v>
+        <v>25.67121253942922</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640201828005387</v>
+        <v>7.036664920695826</v>
       </c>
       <c r="D4">
-        <v>5.325647932214436</v>
+        <v>8.524489073359993</v>
       </c>
       <c r="E4">
-        <v>15.11449299435108</v>
+        <v>29.18074003499948</v>
       </c>
       <c r="F4">
-        <v>35.71611540401505</v>
+        <v>59.17957320100983</v>
       </c>
       <c r="G4">
-        <v>53.97312806182256</v>
+        <v>97.12742653382432</v>
       </c>
       <c r="H4">
-        <v>17.17499675511618</v>
+        <v>24.18086739876593</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.594943887929177</v>
+        <v>6.862182478035472</v>
       </c>
       <c r="D5">
-        <v>5.275008664708738</v>
+        <v>8.308380732209503</v>
       </c>
       <c r="E5">
-        <v>14.85333479962915</v>
+        <v>28.41086462517768</v>
       </c>
       <c r="F5">
-        <v>35.25546152999943</v>
+        <v>57.68281041476131</v>
       </c>
       <c r="G5">
-        <v>53.0810818156808</v>
+        <v>94.66254863757797</v>
       </c>
       <c r="H5">
-        <v>17.04274510246174</v>
+        <v>23.56868630308107</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.587417753661792</v>
+        <v>6.83307141460748</v>
       </c>
       <c r="D6">
-        <v>5.266592867242475</v>
+        <v>8.272392008413977</v>
       </c>
       <c r="E6">
-        <v>14.80963250433646</v>
+        <v>28.282785683746</v>
       </c>
       <c r="F6">
-        <v>35.17863344159634</v>
+        <v>57.43334338846677</v>
       </c>
       <c r="G6">
-        <v>52.93184151972974</v>
+        <v>94.2517391713366</v>
       </c>
       <c r="H6">
-        <v>17.02080368120333</v>
+        <v>23.46666980974203</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.639592259107009</v>
+        <v>7.034320680602406</v>
       </c>
       <c r="D7">
-        <v>5.324965532006997</v>
+        <v>8.521580918961021</v>
       </c>
       <c r="E7">
-        <v>15.11099372557849</v>
+        <v>29.17037087043795</v>
       </c>
       <c r="F7">
-        <v>35.70992596150577</v>
+        <v>59.15944620528616</v>
       </c>
       <c r="G7">
-        <v>53.96117322644605</v>
+        <v>97.09428021412032</v>
       </c>
       <c r="H7">
-        <v>17.17321203841508</v>
+        <v>24.17263427552624</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.86766677092459</v>
+        <v>7.907013684469624</v>
       </c>
       <c r="D8">
-        <v>5.580906729155421</v>
+        <v>9.613743622324023</v>
       </c>
       <c r="E8">
-        <v>16.38985453637524</v>
+        <v>33.08380005760787</v>
       </c>
       <c r="F8">
-        <v>38.00015848500841</v>
+        <v>66.68480359112401</v>
       </c>
       <c r="G8">
-        <v>58.33356360182439</v>
+        <v>109.4903188185701</v>
       </c>
       <c r="H8">
-        <v>17.84700391936332</v>
+        <v>27.25305164798065</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.302440707935506</v>
+        <v>9.634191786705308</v>
       </c>
       <c r="D9">
-        <v>6.071699395578773</v>
+        <v>11.84719215396882</v>
       </c>
       <c r="E9">
-        <v>18.86970573823708</v>
+        <v>41.24813697887866</v>
       </c>
       <c r="F9">
-        <v>42.25359736752887</v>
+        <v>81.78751702691343</v>
       </c>
       <c r="G9">
-        <v>66.2409342593611</v>
+        <v>134.3975337051282</v>
       </c>
       <c r="H9">
-        <v>19.1593731761759</v>
+        <v>33.44866727105439</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.610646901156882</v>
+        <v>11.06368648094288</v>
       </c>
       <c r="D10">
-        <v>6.421499068240125</v>
+        <v>13.80737344495011</v>
       </c>
       <c r="E10">
-        <v>20.60686657495012</v>
+        <v>48.70686871046156</v>
       </c>
       <c r="F10">
-        <v>45.20348272566338</v>
+        <v>94.57059161553111</v>
       </c>
       <c r="G10">
-        <v>71.6079215133053</v>
+        <v>155.533791698185</v>
       </c>
       <c r="H10">
-        <v>20.10724551707756</v>
+        <v>38.7103036524061</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.747787228625371</v>
+        <v>11.86021178493191</v>
       </c>
       <c r="D11">
-        <v>6.577581296934976</v>
+        <v>14.97286515847422</v>
       </c>
       <c r="E11">
-        <v>21.35638126211074</v>
+        <v>53.36614059909266</v>
       </c>
       <c r="F11">
-        <v>46.50257961559642</v>
+        <v>101.8723076753008</v>
       </c>
       <c r="G11">
-        <v>73.94827400440393</v>
+        <v>167.643829194175</v>
       </c>
       <c r="H11">
-        <v>20.5328891772316</v>
+        <v>41.72599627870128</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374477</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.799233576771741</v>
+        <v>12.2229898335442</v>
       </c>
       <c r="D12">
-        <v>6.636197990370052</v>
+        <v>15.53025525003396</v>
       </c>
       <c r="E12">
-        <v>21.6344058659079</v>
+        <v>55.68480383855372</v>
       </c>
       <c r="F12">
-        <v>46.98803801519082</v>
+        <v>105.2632426331922</v>
       </c>
       <c r="G12">
-        <v>74.81966114465946</v>
+        <v>173.2808702994789</v>
       </c>
       <c r="H12">
-        <v>20.69312276344071</v>
+        <v>43.12992440988002</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>31.75299711977164</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.788175943633648</v>
+        <v>12.14014101839261</v>
       </c>
       <c r="D13">
-        <v>6.623596289287736</v>
+        <v>15.40115203360076</v>
       </c>
       <c r="E13">
-        <v>21.57478535990529</v>
+        <v>55.14139052496014</v>
       </c>
       <c r="F13">
-        <v>46.88377867963634</v>
+        <v>104.4843494522393</v>
       </c>
       <c r="G13">
-        <v>74.63265710415709</v>
+        <v>171.9851776299203</v>
       </c>
       <c r="H13">
-        <v>20.65865801399339</v>
+        <v>42.80721968056761</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.752029722615101</v>
+        <v>11.88822031349872</v>
       </c>
       <c r="D14">
-        <v>6.582413779872399</v>
+        <v>15.01520646782485</v>
       </c>
       <c r="E14">
-        <v>21.37937043541522</v>
+        <v>53.53989312354944</v>
       </c>
       <c r="F14">
-        <v>46.54265012011396</v>
+        <v>102.132392898806</v>
       </c>
       <c r="G14">
-        <v>74.02026275025028</v>
+        <v>168.0758570462086</v>
       </c>
       <c r="H14">
-        <v>20.54609150817867</v>
+        <v>41.83359147891104</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489661</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.729824625547321</v>
+        <v>11.74460126557572</v>
       </c>
       <c r="D15">
-        <v>6.557123326602168</v>
+        <v>14.79919972572719</v>
       </c>
       <c r="E15">
-        <v>21.25891946079913</v>
+        <v>52.65719510355038</v>
       </c>
       <c r="F15">
-        <v>46.33284632113661</v>
+        <v>100.801482257242</v>
       </c>
       <c r="G15">
-        <v>73.64321121104939</v>
+        <v>165.8656186852041</v>
       </c>
       <c r="H15">
-        <v>20.47701354564053</v>
+        <v>41.28314461776919</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.601618809704048</v>
+        <v>11.01649826178458</v>
       </c>
       <c r="D16">
-        <v>6.411233009933167</v>
+        <v>13.74032875939104</v>
       </c>
       <c r="E16">
-        <v>20.55706926943449</v>
+        <v>48.44504122665615</v>
       </c>
       <c r="F16">
-        <v>45.1176930226386</v>
+        <v>94.14290556848358</v>
       </c>
       <c r="G16">
-        <v>71.45291064196766</v>
+        <v>154.8254565731455</v>
       </c>
       <c r="H16">
-        <v>20.07930384196959</v>
+        <v>38.53393018134986</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.42464283346098</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.522149913736929</v>
+        <v>10.61926588695774</v>
       </c>
       <c r="D17">
-        <v>6.32091643456298</v>
+        <v>13.18316130936935</v>
       </c>
       <c r="E17">
-        <v>20.11611526749974</v>
+        <v>46.29021659855097</v>
       </c>
       <c r="F17">
-        <v>44.36101940554361</v>
+        <v>90.56019221264995</v>
       </c>
       <c r="G17">
-        <v>70.08308494553559</v>
+        <v>148.8953569293803</v>
       </c>
       <c r="H17">
-        <v>19.83378887045343</v>
+        <v>37.0574510618717</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119272</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.476155396883579</v>
+        <v>10.40154027392698</v>
       </c>
       <c r="D18">
-        <v>6.268684870150366</v>
+        <v>12.88273967913409</v>
       </c>
       <c r="E18">
-        <v>19.85865322088638</v>
+        <v>45.14243971552076</v>
       </c>
       <c r="F18">
-        <v>43.92178569123351</v>
+        <v>88.60858382668219</v>
       </c>
       <c r="G18">
-        <v>69.28569292124584</v>
+        <v>145.6675402290931</v>
       </c>
       <c r="H18">
-        <v>19.69206097939129</v>
+        <v>36.25386865951556</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568142</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.460534774780691</v>
+        <v>10.32925869673632</v>
       </c>
       <c r="D19">
-        <v>6.250953056740764</v>
+        <v>12.78370868767087</v>
       </c>
       <c r="E19">
-        <v>19.77082028624366</v>
+        <v>44.76603507751901</v>
       </c>
       <c r="F19">
-        <v>43.77238993259511</v>
+        <v>87.96240115283295</v>
       </c>
       <c r="G19">
-        <v>69.01408814294462</v>
+        <v>144.5991538814069</v>
       </c>
       <c r="H19">
-        <v>19.64399087572986</v>
+        <v>35.98790176317424</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.530639469913219</v>
+        <v>10.66033037733037</v>
       </c>
       <c r="D20">
-        <v>6.330560553955119</v>
+        <v>13.24019669105204</v>
       </c>
       <c r="E20">
-        <v>20.16345227902725</v>
+        <v>46.50917771892893</v>
       </c>
       <c r="F20">
-        <v>44.44198667598492</v>
+        <v>90.92919059144269</v>
       </c>
       <c r="G20">
-        <v>70.2298914315605</v>
+        <v>149.505840621535</v>
       </c>
       <c r="H20">
-        <v>19.85997871186794</v>
+        <v>37.20944097699856</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.762660256602917</v>
+        <v>11.95971164093709</v>
       </c>
       <c r="D21">
-        <v>6.59452370368845</v>
+        <v>15.12377745005281</v>
       </c>
       <c r="E21">
-        <v>21.43692550303055</v>
+        <v>53.98711839067077</v>
       </c>
       <c r="F21">
-        <v>46.64302604969158</v>
+        <v>102.7974794459004</v>
       </c>
       <c r="G21">
-        <v>74.20054304427929</v>
+        <v>169.1808740665322</v>
       </c>
       <c r="H21">
-        <v>20.57918188555943</v>
+        <v>42.1087950749665</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554063</v>
+        <v>31.50948335633598</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.911451246215831</v>
+        <v>11.95971164093709</v>
       </c>
       <c r="D22">
-        <v>6.7641739590201</v>
+        <v>15.12377745005281</v>
       </c>
       <c r="E22">
-        <v>22.23543168887867</v>
+        <v>53.98711839067077</v>
       </c>
       <c r="F22">
-        <v>48.0436424859118</v>
+        <v>102.7974794459004</v>
       </c>
       <c r="G22">
-        <v>76.7089231171953</v>
+        <v>169.1808740665322</v>
       </c>
       <c r="H22">
-        <v>21.04363524480693</v>
+        <v>42.1087950749665</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>31.50948335633598</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.832312692421359</v>
+        <v>11.95971164093709</v>
       </c>
       <c r="D23">
-        <v>6.673905628839768</v>
+        <v>15.12377745005281</v>
       </c>
       <c r="E23">
-        <v>21.81232618168057</v>
+        <v>53.98711839067077</v>
       </c>
       <c r="F23">
-        <v>47.29966667446977</v>
+        <v>102.7974794459004</v>
       </c>
       <c r="G23">
-        <v>75.37816750397856</v>
+        <v>169.1808740665322</v>
       </c>
       <c r="H23">
-        <v>20.79630489046493</v>
+        <v>42.1087950749665</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911182</v>
+        <v>31.50948335633598</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.526802293663756</v>
+        <v>11.95971164093709</v>
       </c>
       <c r="D24">
-        <v>6.326201401030153</v>
+        <v>15.12377745005281</v>
       </c>
       <c r="E24">
-        <v>20.14206352909104</v>
+        <v>53.98711839067077</v>
       </c>
       <c r="F24">
-        <v>44.40539446720131</v>
+        <v>102.7974794459004</v>
       </c>
       <c r="G24">
-        <v>70.16355090943051</v>
+        <v>169.1808740665322</v>
       </c>
       <c r="H24">
-        <v>19.84814007350923</v>
+        <v>42.1087950749665</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>31.50948335633598</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.186557253758371</v>
+        <v>11.95971164093709</v>
       </c>
       <c r="D25">
-        <v>5.940557437116674</v>
+        <v>15.12377745005281</v>
       </c>
       <c r="E25">
-        <v>18.19349308199895</v>
+        <v>53.98711839067077</v>
       </c>
       <c r="F25">
-        <v>41.13180146318768</v>
+        <v>102.7974794459004</v>
       </c>
       <c r="G25">
-        <v>64.17740294065275</v>
+        <v>169.1808740665322</v>
       </c>
       <c r="H25">
-        <v>18.80647406668165</v>
+        <v>42.1087950749665</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>31.50948335633598</v>
       </c>
       <c r="O25">
         <v>0</v>
